--- a/Таблица.xlsx
+++ b/Таблица.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torsaf\Desktop\Avito XML\Исходный код\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Исходный код\Music City\Step1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F624561-EBA1-42F4-B305-DF3F862DF204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E769AB-5DE0-45A3-88EF-67956D3F20B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="0" windowWidth="17580" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="2016" windowWidth="17580" windowHeight="14316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Arispro</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Из Опта</t>
+  </si>
+  <si>
+    <t>Gewa</t>
+  </si>
+  <si>
+    <t>csv</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,7 +866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -881,6 +887,32 @@
       </c>
       <c r="H17">
         <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
